--- a/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFB51F-0A30-4D12-85B1-1AD259674A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C7459-09D6-4A43-9743-C93D509004D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,33 @@
       </rPr>
       <t xml:space="preserve"> Bij een WION uitlevering wordt de voorzorgsmaatregel met de hoogste prioriteit bijgesloten middels een gekoppeld separaat bestand beschreven in EisVoorzorgsmaatregelBijlage. Via de Belanghebbende is de bijlage gekoppeld aan het utiliteitstnet</t>
     </r>
+  </si>
+  <si>
+    <t>Figuur 3.2</t>
+  </si>
+  <si>
+    <t>Vervangen door aangepast figuur. Focus is nu op verschill aanleveren en uitleveren.</t>
+  </si>
+  <si>
+    <t>alles</t>
+  </si>
+  <si>
+    <t>WION -&gt; WIBON</t>
+  </si>
+  <si>
+    <t>IMKL2015 -&gt; IMKL</t>
+  </si>
+  <si>
+    <t>Referentie aan EC61 verwijderd. Is geintegreerd in WIBON</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Gebruik metamodel INSPIRE en niet MIM. Pas toe of leg uit.</t>
+  </si>
+  <si>
+    <t>aandachtspunten in geel gehighlight</t>
   </si>
 </sst>
 </file>
@@ -575,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -603,7 +630,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43973</v>
       </c>
@@ -616,45 +643,69 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43976</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="5"/>
     </row>
@@ -2026,6 +2077,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2228,22 +2294,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2260,21 +2328,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C7459-09D6-4A43-9743-C93D509004D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CAE91-5D3D-42CF-B990-B906B948CD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,60 @@
   </si>
   <si>
     <t>Hfst/paragraaf/blz</t>
+  </si>
+  <si>
+    <t>Figuur 3.2</t>
+  </si>
+  <si>
+    <t>Vervangen door aangepast figuur. Focus is nu op verschill aanleveren en uitleveren.</t>
+  </si>
+  <si>
+    <t>alles</t>
+  </si>
+  <si>
+    <t>WION -&gt; WIBON</t>
+  </si>
+  <si>
+    <t>IMKL2015 -&gt; IMKL</t>
+  </si>
+  <si>
+    <t>Referentie aan EC61 verwijderd. Is geintegreerd in WIBON</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Gebruik metamodel INSPIRE en niet MIM. Pas toe of leg uit.</t>
+  </si>
+  <si>
+    <t>aandachtspunten in geel gehighlight</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>5.2.8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maximaal 1 utiliteitsnet per netelement.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Containerelement, Kabelbed, Mantelbuis en Duct kunnen in de werkelijkheid bij meerdere utiliteitsnetten geregistreerd zijn. Het IMKL model dwingt met een aparte constraint (Max1Utiliteitsnet) af dat in de datauitwisseling een netelement altijd naar maximaal 1 utilititeitsnet kan verwijzen. Het kan daarmee voorkomen dat in een totaalset van een iWIBON uitlevering elementen dubbel zijn opgenomen Bijvoorbeeld een gedeelde mantelbuis komt zowel in het telecomnet als in het waternet </t>
+    </r>
   </si>
   <si>
     <r>
@@ -97,7 +151,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Op het niveau van het utiliteitsnet wordt de voorzorgsmaatregel met de hoogste prioriteit opgenomen. De tekst daarvan is middels een gekoppelde bijlage opgenomen: EisVoorzorgsmaatregelBijlage. 
+      <t xml:space="preserve">:  wordt de voorzorgsmaatregel met de hoogste prioriteit opgenomen. De tekst daarvan is middels een gekoppelde bijlage opgenomen: EisVoorzorgsmaatregelBijlage. 
 </t>
     </r>
     <r>
@@ -119,42 +173,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Bij een WION uitlevering wordt de voorzorgsmaatregel met de hoogste prioriteit bijgesloten middels een gekoppeld separaat bestand beschreven in EisVoorzorgsmaatregelBijlage. Via de Belanghebbende is de bijlage gekoppeld aan het utiliteitstnet</t>
+      <t xml:space="preserve"> Bij een WIBON uitlevering wordt de voorzorgsmaatregel met de hoogste prioriteit bijgesloten middels een gekoppeld separaat bestand beschreven in EisVoorzorgsmaatregelBijlage. Via de Belanghebbende is de bijlage gekoppeld aan het utiliteitsnet</t>
     </r>
   </si>
   <si>
-    <t>Figuur 3.2</t>
-  </si>
-  <si>
-    <t>Vervangen door aangepast figuur. Focus is nu op verschill aanleveren en uitleveren.</t>
-  </si>
-  <si>
-    <t>alles</t>
-  </si>
-  <si>
-    <t>WION -&gt; WIBON</t>
-  </si>
-  <si>
-    <t>IMKL2015 -&gt; IMKL</t>
-  </si>
-  <si>
-    <t>Referentie aan EC61 verwijderd. Is geintegreerd in WIBON</t>
-  </si>
-  <si>
-    <t>5.2.2</t>
-  </si>
-  <si>
-    <t>Gebruik metamodel INSPIRE en niet MIM. Pas toe of leg uit.</t>
-  </si>
-  <si>
-    <t>aandachtspunten in geel gehighlight</t>
+    <t>blz 28</t>
+  </si>
+  <si>
+    <t>Informatie technisch is het mogelijk dat sommige objecttypen bij meerdere utiliteitsnetten horen, bijvoorbeeld een door verschillende netten gedeelde mantelbuis, of een dieptemarkering. De associatierol inNetwork is daarom 1..*. Echter vanuit operationeel punt bezien is dat niet wenselijk. Met een constraint (‘Max1Utiliteitsnet’) is daarom in alle gevallen het maximaal aantal utiliteitsnetten waarnaar verwezen kan worden beperkt tot 1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -210,6 +243,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -239,7 +285,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -280,6 +326,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -634,9 +686,11 @@
       <c r="A2" s="6">
         <v>43973</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D2" s="10">
         <v>268</v>
@@ -648,10 +702,10 @@
         <v>43976</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5"/>
@@ -659,10 +713,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="5"/>
@@ -670,10 +724,10 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
@@ -682,7 +736,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5"/>
@@ -690,10 +744,10 @@
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
@@ -701,26 +755,38 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10">
+        <v>269</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>269</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -735,19 +801,20 @@
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
       <c r="E14" s="5"/>
@@ -758,13 +825,13 @@
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
       <c r="I16" s="11"/>
@@ -774,16 +841,15 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="I17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="5"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
@@ -799,14 +865,14 @@
       <c r="D20" s="10"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="10"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -867,7 +933,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
@@ -902,14 +968,14 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
@@ -1057,6 +1123,8 @@
       <c r="C57" s="6"/>
       <c r="D57" s="10"/>
       <c r="E57" s="5"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
@@ -1099,7 +1167,7 @@
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
@@ -1117,7 +1185,7 @@
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
     </row>
@@ -1132,10 +1200,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
@@ -1153,7 +1221,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
@@ -1306,7 +1374,7 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
     </row>
@@ -1360,7 +1428,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
@@ -1469,8 +1537,6 @@
       <c r="C103" s="5"/>
       <c r="D103" s="10"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
@@ -1586,14 +1652,14 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="5"/>
       <c r="D120" s="10"/>
       <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="10"/>
       <c r="E121" s="5"/>
@@ -1614,10 +1680,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -1634,11 +1700,11 @@
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="6"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
@@ -1690,10 +1756,10 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="10"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -1996,13 +2062,6 @@
       <c r="C178" s="7"/>
       <c r="D178" s="14"/>
       <c r="E178" s="7"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CAE91-5D3D-42CF-B990-B906B948CD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B94EDE-CCCB-41BC-BAD7-87B412F130F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -711,7 +711,9 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <v>43976</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -722,7 +724,9 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6">
+        <v>43976</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -733,7 +737,9 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>43976</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -742,7 +748,9 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>43976</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -753,7 +761,9 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>43976</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -764,7 +774,9 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>43976</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -777,7 +789,9 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>43976</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2136,21 +2150,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2353,24 +2352,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2387,4 +2384,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL_Modeldoc-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D09763-339D-4D4E-9D99-529C249A7779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48134F59-D968-411C-A891-8EA3EB46EF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>Hfst/paragraaf/blz</t>
+  </si>
+  <si>
+    <t>Bijlage 3</t>
+  </si>
+  <si>
+    <t>Toegevoegd met uitleg en figuur over geometrieVoorVisualisatie bij Informatiepolygoon</t>
+  </si>
+  <si>
+    <t>5.2.25</t>
+  </si>
+  <si>
+    <t>Toegevoegd tekst over geometrieVoorVisualisatie</t>
+  </si>
+  <si>
+    <t>punten van TCS verwerkt</t>
   </si>
 </sst>
 </file>
@@ -939,8 +954,8 @@
   <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1325,27 +1340,43 @@
       <c r="E25" s="10"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>44018</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6">
+        <v>44018</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>44018</v>
+      </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="6"/>
     </row>
